--- a/data/pca/factorExposure/factorExposure_2012-10-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-22.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00203473909369608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001886741615428726</v>
+      </c>
+      <c r="C2">
+        <v>-0.02797606034953306</v>
+      </c>
+      <c r="D2">
+        <v>0.008496878108033793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001132418426150278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006963394004439691</v>
+      </c>
+      <c r="C4">
+        <v>-0.08308343483028646</v>
+      </c>
+      <c r="D4">
+        <v>0.07235489785480471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0008083954476023892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01390184549638394</v>
+      </c>
+      <c r="C6">
+        <v>-0.1136297726135513</v>
+      </c>
+      <c r="D6">
+        <v>0.02205332295903336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0008376797949552599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004944166143052409</v>
+      </c>
+      <c r="C7">
+        <v>-0.05843165039831864</v>
+      </c>
+      <c r="D7">
+        <v>0.03237822419749291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006808513383752488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00558769314053955</v>
+      </c>
+      <c r="C8">
+        <v>-0.0349370260164707</v>
+      </c>
+      <c r="D8">
+        <v>0.039195651434715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003222790658116039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.005053774230963212</v>
+      </c>
+      <c r="C9">
+        <v>-0.07084743574778264</v>
+      </c>
+      <c r="D9">
+        <v>0.07557865386709912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001393885580787026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005596295807294583</v>
+      </c>
+      <c r="C10">
+        <v>-0.05671062660600602</v>
+      </c>
+      <c r="D10">
+        <v>-0.1972923620214007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002801622895526479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005677153410274369</v>
+      </c>
+      <c r="C11">
+        <v>-0.07937612079612112</v>
+      </c>
+      <c r="D11">
+        <v>0.06421992525842285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006731876293558931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004087743578075301</v>
+      </c>
+      <c r="C12">
+        <v>-0.06480466787573536</v>
+      </c>
+      <c r="D12">
+        <v>0.05060575082250087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002469106935656937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008594006711143579</v>
+      </c>
+      <c r="C13">
+        <v>-0.06729108127837385</v>
+      </c>
+      <c r="D13">
+        <v>0.06400504907951968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002080023493112383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.0007519476649083663</v>
+      </c>
+      <c r="C14">
+        <v>-0.04260007031116341</v>
+      </c>
+      <c r="D14">
+        <v>0.009315353963554275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001075939503576439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005995303637795553</v>
+      </c>
+      <c r="C15">
+        <v>-0.04091189913446582</v>
+      </c>
+      <c r="D15">
+        <v>0.02977006318419633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009015432221579039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005057661706650283</v>
+      </c>
+      <c r="C16">
+        <v>-0.06451645254870182</v>
+      </c>
+      <c r="D16">
+        <v>0.05571752550999444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0006058518028163989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009086770714163169</v>
+      </c>
+      <c r="C20">
+        <v>-0.06451889696090671</v>
+      </c>
+      <c r="D20">
+        <v>0.0486744991283326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007126193967575352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009672470451257425</v>
+      </c>
+      <c r="C21">
+        <v>-0.02029699684175867</v>
+      </c>
+      <c r="D21">
+        <v>0.04179930765396465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01530475477691491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006454218956841582</v>
+      </c>
+      <c r="C22">
+        <v>-0.08906949118439864</v>
+      </c>
+      <c r="D22">
+        <v>0.1176877076758227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01508426762327225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006266356882250296</v>
+      </c>
+      <c r="C23">
+        <v>-0.08958317986783908</v>
+      </c>
+      <c r="D23">
+        <v>0.1184977793665162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002157079915108607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005590074408319648</v>
+      </c>
+      <c r="C24">
+        <v>-0.07595219021180399</v>
+      </c>
+      <c r="D24">
+        <v>0.06774676281885122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003910535954458278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003183090254722344</v>
+      </c>
+      <c r="C25">
+        <v>-0.07827667509008812</v>
+      </c>
+      <c r="D25">
+        <v>0.06590615663966835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003240478865265779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003663378533692445</v>
+      </c>
+      <c r="C26">
+        <v>-0.03896341758828359</v>
+      </c>
+      <c r="D26">
+        <v>0.02529595890217834</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007917046476932942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001431911337255018</v>
+      </c>
+      <c r="C28">
+        <v>-0.1033765080480796</v>
+      </c>
+      <c r="D28">
+        <v>-0.3205510379280536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001315052372488337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002580451152458915</v>
+      </c>
+      <c r="C29">
+        <v>-0.04859031873846718</v>
+      </c>
+      <c r="D29">
+        <v>0.008583330937415473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004601727135315712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009810890659138104</v>
+      </c>
+      <c r="C30">
+        <v>-0.1419954782194979</v>
+      </c>
+      <c r="D30">
+        <v>0.1092676920151491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0006855183663416728</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006247764579511564</v>
+      </c>
+      <c r="C31">
+        <v>-0.04390209819603048</v>
+      </c>
+      <c r="D31">
+        <v>0.03101042559085836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001484900219307171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00359919433489295</v>
+      </c>
+      <c r="C32">
+        <v>-0.04002521254310074</v>
+      </c>
+      <c r="D32">
+        <v>0.02570775339089298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002326255340792524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008935171359157647</v>
+      </c>
+      <c r="C33">
+        <v>-0.0879998792684093</v>
+      </c>
+      <c r="D33">
+        <v>0.06596237686212043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004011508430148043</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004104568262865716</v>
+      </c>
+      <c r="C34">
+        <v>-0.05788848955607756</v>
+      </c>
+      <c r="D34">
+        <v>0.05727014542000047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006219025286765778</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005198010104012446</v>
+      </c>
+      <c r="C35">
+        <v>-0.04098989787637278</v>
+      </c>
+      <c r="D35">
+        <v>0.01924722804535815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004467443289405456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00122657828017209</v>
+      </c>
+      <c r="C36">
+        <v>-0.02459434270099966</v>
+      </c>
+      <c r="D36">
+        <v>0.02582010679722692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0008585140554789909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009250424245280215</v>
+      </c>
+      <c r="C38">
+        <v>-0.03763964764350162</v>
+      </c>
+      <c r="D38">
+        <v>0.01420577663922677</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01258303766562197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009427478520455799</v>
+      </c>
+      <c r="C39">
+        <v>-0.1143056890232574</v>
+      </c>
+      <c r="D39">
+        <v>0.07830249797860278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007365036344374549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003718594519746269</v>
+      </c>
+      <c r="C40">
+        <v>-0.09064702469872171</v>
+      </c>
+      <c r="D40">
+        <v>0.01558627795316742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0009273437633308815</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007181653352166717</v>
+      </c>
+      <c r="C41">
+        <v>-0.03892709712755537</v>
+      </c>
+      <c r="D41">
+        <v>0.03819689628878217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002813574699225875</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003975178974619862</v>
+      </c>
+      <c r="C43">
+        <v>-0.05411495334911123</v>
+      </c>
+      <c r="D43">
+        <v>0.02623166820046282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01278099374833123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003037049575036822</v>
+      </c>
+      <c r="C44">
+        <v>-0.1060521256179775</v>
+      </c>
+      <c r="D44">
+        <v>0.06767615161924212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001136386041130123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001794279317594109</v>
+      </c>
+      <c r="C46">
+        <v>-0.03304659992555636</v>
+      </c>
+      <c r="D46">
+        <v>0.03329964513382675</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002165233755797198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002212547466003723</v>
+      </c>
+      <c r="C47">
+        <v>-0.03674088670737112</v>
+      </c>
+      <c r="D47">
+        <v>0.01929138856605053</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004179311012359707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006700889215695682</v>
+      </c>
+      <c r="C48">
+        <v>-0.03057106859571064</v>
+      </c>
+      <c r="D48">
+        <v>0.03657181189668683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01008440853466891</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01744916695046965</v>
+      </c>
+      <c r="C49">
+        <v>-0.1893980009848206</v>
+      </c>
+      <c r="D49">
+        <v>0.005704743876068177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001191438839908957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003496425884321302</v>
+      </c>
+      <c r="C50">
+        <v>-0.04266223613612556</v>
+      </c>
+      <c r="D50">
+        <v>0.03889578798049655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008984696566368965</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004764030092150241</v>
+      </c>
+      <c r="C51">
+        <v>-0.02558947485570099</v>
+      </c>
+      <c r="D51">
+        <v>0.02185042143285433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001974765603140142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02117321528214535</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698123935355606</v>
+      </c>
+      <c r="D53">
+        <v>0.025326678721195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002459714275175497</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008864607718495815</v>
+      </c>
+      <c r="C54">
+        <v>-0.05369080979967342</v>
+      </c>
+      <c r="D54">
+        <v>0.0453256269810747</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00367397163764125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009587087127184769</v>
+      </c>
+      <c r="C55">
+        <v>-0.1079380697669886</v>
+      </c>
+      <c r="D55">
+        <v>0.04017797443438462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003097385337800065</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01998267698444928</v>
+      </c>
+      <c r="C56">
+        <v>-0.1751914388976034</v>
+      </c>
+      <c r="D56">
+        <v>0.01596884210067186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.004308138275605695</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01947767596064466</v>
+      </c>
+      <c r="C58">
+        <v>-0.1070606532273905</v>
+      </c>
+      <c r="D58">
+        <v>0.06833638489598519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009493943320744932</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009956650516233284</v>
+      </c>
+      <c r="C59">
+        <v>-0.1659943268001539</v>
+      </c>
+      <c r="D59">
+        <v>-0.3408804148585476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00326097126867943</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02524660610815229</v>
+      </c>
+      <c r="C60">
+        <v>-0.2254703883002706</v>
+      </c>
+      <c r="D60">
+        <v>0.02097966621591091</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01320023016700469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001922313194749802</v>
+      </c>
+      <c r="C61">
+        <v>-0.09408482384583748</v>
+      </c>
+      <c r="D61">
+        <v>0.05934746847113966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1589742948080931</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1486732901429538</v>
+      </c>
+      <c r="C62">
+        <v>-0.09507436375077634</v>
+      </c>
+      <c r="D62">
+        <v>0.02767160599733297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>2.25456510734506e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006600289280823816</v>
+      </c>
+      <c r="C63">
+        <v>-0.05371669725063642</v>
+      </c>
+      <c r="D63">
+        <v>0.03191768313682715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002153549557455137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01593998695354447</v>
+      </c>
+      <c r="C64">
+        <v>-0.104897783401726</v>
+      </c>
+      <c r="D64">
+        <v>0.05620465510107293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002777256922048825</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01792325954951362</v>
+      </c>
+      <c r="C65">
+        <v>-0.1235562854185955</v>
+      </c>
+      <c r="D65">
+        <v>0.02037223368923364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003286978791528472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01355023481650228</v>
+      </c>
+      <c r="C66">
+        <v>-0.1598187095326648</v>
+      </c>
+      <c r="D66">
+        <v>0.1128441840124301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003111365103390848</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01557639572936634</v>
+      </c>
+      <c r="C67">
+        <v>-0.06938719866797641</v>
+      </c>
+      <c r="D67">
+        <v>0.02651198554504082</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007407628558119721</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009364589321277737</v>
+      </c>
+      <c r="C68">
+        <v>-0.08724499213762615</v>
+      </c>
+      <c r="D68">
+        <v>-0.2584841527429971</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001583755418189314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006304899329417412</v>
+      </c>
+      <c r="C69">
+        <v>-0.0519865309849788</v>
+      </c>
+      <c r="D69">
+        <v>0.03764389304964968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003943038280792473</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00198464254353258</v>
+      </c>
+      <c r="C70">
+        <v>-0.005654856884026669</v>
+      </c>
+      <c r="D70">
+        <v>0.001043325419914581</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002365839277070043</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005515185266587785</v>
+      </c>
+      <c r="C71">
+        <v>-0.09114532453980276</v>
+      </c>
+      <c r="D71">
+        <v>-0.3017761780691834</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003143089171884638</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01670591798482602</v>
+      </c>
+      <c r="C72">
+        <v>-0.1560584575104194</v>
+      </c>
+      <c r="D72">
+        <v>0.01503574019078212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.009872800296791412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03186562418747638</v>
+      </c>
+      <c r="C73">
+        <v>-0.2829218175572754</v>
+      </c>
+      <c r="D73">
+        <v>0.0547275272198382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005420315558051051</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002003546934432233</v>
+      </c>
+      <c r="C74">
+        <v>-0.1022710456409801</v>
+      </c>
+      <c r="D74">
+        <v>0.03618102038118252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004078966838783684</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01134415527062553</v>
+      </c>
+      <c r="C75">
+        <v>-0.1225568370407963</v>
+      </c>
+      <c r="D75">
+        <v>0.02381427050277928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.007113109386540454</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02226753683891675</v>
+      </c>
+      <c r="C76">
+        <v>-0.1477926389688893</v>
+      </c>
+      <c r="D76">
+        <v>0.05761661470538616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002148400843896043</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02176231032013556</v>
+      </c>
+      <c r="C77">
+        <v>-0.1131170790280147</v>
+      </c>
+      <c r="D77">
+        <v>0.04922273974280009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.002283015035729457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01502852699168996</v>
+      </c>
+      <c r="C78">
+        <v>-0.09602330155878573</v>
+      </c>
+      <c r="D78">
+        <v>0.07772721193830857</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02331088708720934</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03852368864439484</v>
+      </c>
+      <c r="C79">
+        <v>-0.1563318418309332</v>
+      </c>
+      <c r="D79">
+        <v>0.03308683441844443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.007769523637390447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01002975814208455</v>
+      </c>
+      <c r="C80">
+        <v>-0.03797050315970423</v>
+      </c>
+      <c r="D80">
+        <v>0.03076304115054202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001408789553449704</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01581227757073049</v>
+      </c>
+      <c r="C81">
+        <v>-0.1295200115922378</v>
+      </c>
+      <c r="D81">
+        <v>0.0380376612142593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004673871968533804</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02011360186009415</v>
+      </c>
+      <c r="C82">
+        <v>-0.1387335752590012</v>
+      </c>
+      <c r="D82">
+        <v>0.04107103524748736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005453720179096826</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01056882622429844</v>
+      </c>
+      <c r="C83">
+        <v>-0.05925940277488773</v>
+      </c>
+      <c r="D83">
+        <v>0.04991515373476589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01380808490116283</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0118462987098569</v>
+      </c>
+      <c r="C84">
+        <v>-0.03691058837853148</v>
+      </c>
+      <c r="D84">
+        <v>-0.003575488838556158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0150063642270466</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02947126346744082</v>
+      </c>
+      <c r="C85">
+        <v>-0.1243310984156329</v>
+      </c>
+      <c r="D85">
+        <v>0.04233329704379689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008158028555841549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004588712249015259</v>
+      </c>
+      <c r="C86">
+        <v>-0.05007862267871469</v>
+      </c>
+      <c r="D86">
+        <v>0.02869082542616405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003196476205043261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01081252485141104</v>
+      </c>
+      <c r="C87">
+        <v>-0.1286140298656914</v>
+      </c>
+      <c r="D87">
+        <v>0.073845740799896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01113060561195031</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002924886250324278</v>
+      </c>
+      <c r="C88">
+        <v>-0.06317435207933622</v>
+      </c>
+      <c r="D88">
+        <v>0.02644818341085144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01536077273655334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.00201193418087555</v>
+      </c>
+      <c r="C89">
+        <v>-0.1390671055583596</v>
+      </c>
+      <c r="D89">
+        <v>-0.3205148784789584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004793140961910804</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006524181640682386</v>
+      </c>
+      <c r="C90">
+        <v>-0.1195222588801091</v>
+      </c>
+      <c r="D90">
+        <v>-0.3141358199182811</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0008048354480331589</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01050804642550211</v>
+      </c>
+      <c r="C91">
+        <v>-0.09966188152396006</v>
+      </c>
+      <c r="D91">
+        <v>0.02464670095477501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01194265108362128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0003819646971117951</v>
+      </c>
+      <c r="C92">
+        <v>-0.1350550838956122</v>
+      </c>
+      <c r="D92">
+        <v>-0.3257503641649443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002163160873693827</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004508281885811719</v>
+      </c>
+      <c r="C93">
+        <v>-0.1044809331363997</v>
+      </c>
+      <c r="D93">
+        <v>-0.2989412611963039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001252609602237863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02184676567042834</v>
+      </c>
+      <c r="C94">
+        <v>-0.1430144547184091</v>
+      </c>
+      <c r="D94">
+        <v>0.0537580371415362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002578786299438994</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01670442993956734</v>
+      </c>
+      <c r="C95">
+        <v>-0.1221036870011167</v>
+      </c>
+      <c r="D95">
+        <v>0.06430189552556352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001752451042942738</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03711489712290945</v>
+      </c>
+      <c r="C97">
+        <v>-0.2247204060971719</v>
+      </c>
+      <c r="D97">
+        <v>0.001014864721914585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.001033869561556437</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03805020178663331</v>
+      </c>
+      <c r="C98">
+        <v>-0.2556957652149771</v>
+      </c>
+      <c r="D98">
+        <v>0.03593943880442205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9855139291412564</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9813447383359367</v>
+      </c>
+      <c r="C99">
+        <v>0.1198244887036964</v>
+      </c>
+      <c r="D99">
+        <v>-0.02502314316545376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001230915728942984</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002622607627462667</v>
+      </c>
+      <c r="C101">
+        <v>-0.04872320309046683</v>
+      </c>
+      <c r="D101">
+        <v>0.00896573431603559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
